--- a/target/classes/kalagato/TestData/TestData.xlsx
+++ b/target/classes/kalagato/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Sno</t>
+  </si>
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -29,12 +32,18 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">admin@kalagato.com</t>
   </si>
   <si>
     <t xml:space="preserve">Kalagato@12345</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">firstname</t>
   </si>
   <si>
@@ -44,6 +53,9 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
+    <t xml:space="preserve">newpassword</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akshunya</t>
   </si>
   <si>
@@ -51,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">akshunya.jugran@quovantis.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AkshunyaJugran123</t>
   </si>
   <si>
     <t xml:space="preserve">AkshunyaJugran@123</t>
@@ -151,8 +160,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,31 +194,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -224,58 +249,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="AkshunyaJugran@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/target/classes/kalagato/TestData/TestData.xlsx
+++ b/target/classes/kalagato/TestData/TestData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="user" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nonadmin" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sno</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t xml:space="preserve">AkshunyaJugran@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshunya.jugran3@quovantis.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalagato@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshunya.jugran4@quovantis.com</t>
   </si>
 </sst>
 </file>
@@ -200,8 +210,9 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -251,12 +262,13 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -324,4 +336,89 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Kalagato@123"/>
+    <hyperlink ref="G2" r:id="rId2" display="Kalagato@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>